--- a/DOCUMENTS/Bill_of_Materials_In-Incubator-Microscope_v0.xlsx
+++ b/DOCUMENTS/Bill_of_Materials_In-Incubator-Microscope_v0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bene/Dropbox/Dokumente/Promotion/PROJECTS/UC2-GIT/DOCUMENTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A35F64D-FD5F-7C4A-B218-03544A3DF2F9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D7C77C-BF56-D341-9513-D81BF50BC270}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="25860" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
   <si>
     <t>details1</t>
   </si>
@@ -251,9 +251,6 @@
     <t>https://github.com/amchagas/Flypi</t>
   </si>
   <si>
-    <t>https://www.reichelt.de/Blei-Vlies-Akkus-12V-Panasonic/LCR-12V-7-2P-1/3/index.html?ACTION=3&amp;LA=5&amp;ARTICLE=26559&amp;GROUPID=4234&amp;artnr=LCR-12V+7%2C2P-1</t>
-  </si>
-  <si>
     <t>http://www.screwsandmore.de/en/50-pcs-DIN-912-A2-M3X12.html</t>
   </si>
   <si>
@@ -456,6 +453,33 @@
   </si>
   <si>
     <t>Common (Lab) MAterial (therfore optional)</t>
+  </si>
+  <si>
+    <t>LENSES, Optics</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/Plan-achromatische-Objektiv-4x-10x-20x-40x-60x-100x-fur-195-Biomikroskop/252980265169?hash=item3ae6cc80d1%3Am%3AmTYVmo2HcnF0Zq4fuB5_iew&amp;var=552017005152</t>
+  </si>
+  <si>
+    <t>Microscope Lens, 10x</t>
+  </si>
+  <si>
+    <t>NA 0.25</t>
+  </si>
+  <si>
+    <t>WD &gt;5mm</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>https://de.aliexpress.com/store/product/3Pcs-Free-Shipping-Mo-Reflective-Mirror-Dia-25mm-Molybdenum-Reflector-Lens-For-CO2-Laser-Cutting-Engraving/2347239_32759696170.html?spm=a2g0x.search0104.3.2.16ae7d0bLq25YI&amp;ws_ab_test=searchweb0_0,searchweb201602_4_10320_10152_10065_10151_10344_10068_10342_10547_10343_10340_10341_10548_10696_10084_5724015_10083_10618_5724315_10304_10307_10820_10821_5724215_10302_5724115_10843_10059_100031_10319_5725015_10103_5724915_10624_10623_10622_10621_10620,searchweb201603_55,ppcSwitch_5&amp;algo_expid=7f50c9d3-3b7b-4a5c-abd6-ef835028a5a5-0&amp;algo_pvid=7f50c9d3-3b7b-4a5c-abd6-ef835028a5a5&amp;priceBeautifyAB=0</t>
+  </si>
+  <si>
+    <t>Can be any</t>
+  </si>
+  <si>
+    <t>D=25,4 mm</t>
   </si>
 </sst>
 </file>
@@ -581,7 +605,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -647,12 +671,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -696,6 +729,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1019,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1057,7 +1093,7 @@
         <v>61</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>57</v>
@@ -1065,7 +1101,7 @@
     </row>
     <row r="3" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1081,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -1096,7 +1132,7 @@
         <v>18.649999999999999</v>
       </c>
       <c r="G4" s="5">
-        <f>E4*F4</f>
+        <f t="shared" ref="G4:G9" si="0">E4*F4</f>
         <v>18.649999999999999</v>
       </c>
       <c r="H4" s="21" t="s">
@@ -1108,16 +1144,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="31" t="s">
         <v>73</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="E5" s="5">
         <v>16</v>
@@ -1126,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <f>E5*F5</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H5" s="21" t="s">
@@ -1156,7 +1192,7 @@
         <v>1.99</v>
       </c>
       <c r="G6" s="5">
-        <f>E6*F6</f>
+        <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
       <c r="H6" s="21" t="s">
@@ -1168,10 +1204,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="31">
@@ -1181,29 +1217,29 @@
         <v>17</v>
       </c>
       <c r="G7" s="5">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>122</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
-        <f>E8*F8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="21"/>
@@ -1227,7 +1263,7 @@
         <v>1.95</v>
       </c>
       <c r="G9" s="33">
-        <f>E9*F9</f>
+        <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
       <c r="H9" s="34"/>
@@ -1237,7 +1273,7 @@
     </row>
     <row r="10" spans="1:9" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="F10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10">
         <f>SUM(G4:G8)</f>
@@ -1246,7 +1282,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1259,16 +1295,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>73</v>
-      </c>
       <c r="D13" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="5">
         <v>16</v>
@@ -1277,11 +1313,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" ref="G13" si="0">E13*F13</f>
+        <f t="shared" ref="G13" si="1">E13*F13</f>
         <v>16</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>63</v>
@@ -1313,10 +1349,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1327,22 +1363,22 @@
         <v>2.75</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" ref="G12:G28" si="1">E16*F16</f>
+        <f t="shared" ref="G16:G27" si="2">E16*F16</f>
         <v>22</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1353,12 +1389,12 @@
         <v>20</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1377,7 +1413,7 @@
         <v>37.5</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.5</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -1398,7 +1434,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1407,7 +1443,7 @@
         <v>18.989999999999998</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.989999999999998</v>
       </c>
       <c r="H19" s="21" t="s">
@@ -1428,7 +1464,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="5">
         <v>100</v>
@@ -1437,11 +1473,11 @@
         <v>0.05</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>12</v>
@@ -1449,13 +1485,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="C21" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="E21" s="31">
         <v>64</v>
@@ -1464,25 +1500,25 @@
         <v>0.1</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
       <c r="H21" s="21" t="s">
         <v>58</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>76</v>
-      </c>
       <c r="C22" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="31">
@@ -1492,22 +1528,22 @@
         <v>73.48</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73.48</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>127</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>128</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1518,19 +1554,19 @@
         <v>26.79</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.79</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1544,7 +1580,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="21"/>
@@ -1566,22 +1602,22 @@
         <v>16.989999999999998</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.989999999999998</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1592,14 +1628,14 @@
         <v>1</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H27" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1624,7 +1660,7 @@
     </row>
     <row r="31" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1637,10 +1673,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1651,19 +1687,19 @@
         <v>20</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" ref="G32:G33" si="2">E32*F32</f>
+        <f t="shared" ref="G32:G33" si="3">E32*F32</f>
         <v>20</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>51</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>36</v>
@@ -1681,7 +1717,7 @@
         <v>0.36</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36</v>
       </c>
       <c r="H33" s="21"/>
@@ -1694,7 +1730,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1812,7 +1848,7 @@
         <v>0.08</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" ref="G38" si="3">E38*F38</f>
+        <f t="shared" ref="G38" si="4">E38*F38</f>
         <v>0.24</v>
       </c>
       <c r="H38" s="22"/>
@@ -1843,7 +1879,7 @@
     </row>
     <row r="42" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1856,10 +1892,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1874,18 +1910,18 @@
         <v>10.7</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1896,25 +1932,25 @@
         <v>3.68</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" ref="G44" si="4">E44*F44</f>
+        <f t="shared" ref="G44" si="5">E44*F44</f>
         <v>7.36</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7">
@@ -1928,10 +1964,10 @@
         <v>2.68</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -1941,36 +1977,89 @@
       </c>
       <c r="H46" s="25"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H47" s="23"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F48" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G48" s="2">
-        <f>G46+G40+G29</f>
-        <v>288.84039999999999</v>
-      </c>
-      <c r="H48" s="25"/>
+    <row r="48" spans="1:9" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="36"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H49" s="23"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>32</v>
+      </c>
+      <c r="G49" s="5">
+        <f>E49*F49</f>
+        <v>32</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33">
+        <v>1</v>
+      </c>
+      <c r="F50" s="33">
+        <v>3</v>
+      </c>
+      <c r="G50" s="33">
+        <f>E50*F50</f>
+        <v>3</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A51" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
+      <c r="G51" s="30">
+        <f>SUM(G49:G50)</f>
+        <v>35</v>
+      </c>
       <c r="H51" s="23"/>
-      <c r="I51" s="29" t="s">
-        <v>64</v>
-      </c>
+      <c r="I51" s="29"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="28"/>
@@ -1999,8 +2088,13 @@
       <c r="G54" s="28"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F55" s="27"/>
-      <c r="G55" s="28"/>
+      <c r="F55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="2">
+        <f>G46+G40+G29+G51</f>
+        <v>323.84039999999999</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2009,14 +2103,13 @@
     <hyperlink ref="I18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="I9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="I33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I51" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="I35" r:id="rId7" xr:uid="{646361E8-D855-AC4E-BD37-359D8B4830E5}"/>
-    <hyperlink ref="I36" r:id="rId8" xr:uid="{7742F7FA-D050-3840-B7E4-B2ED1C6313A2}"/>
-    <hyperlink ref="I37" r:id="rId9" xr:uid="{5F3C13BF-F60A-4E42-A9E2-CE10B21F7E1D}"/>
-    <hyperlink ref="I38" r:id="rId10" xr:uid="{FD7E0544-7A99-804C-BEBD-6927F7B4F216}"/>
+    <hyperlink ref="I35" r:id="rId6" xr:uid="{646361E8-D855-AC4E-BD37-359D8B4830E5}"/>
+    <hyperlink ref="I36" r:id="rId7" xr:uid="{7742F7FA-D050-3840-B7E4-B2ED1C6313A2}"/>
+    <hyperlink ref="I37" r:id="rId8" xr:uid="{5F3C13BF-F60A-4E42-A9E2-CE10B21F7E1D}"/>
+    <hyperlink ref="I38" r:id="rId9" xr:uid="{FD7E0544-7A99-804C-BEBD-6927F7B4F216}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId10"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
